--- a/config/AntiSac_config/AntiSac_run5.xlsx
+++ b/config/AntiSac_config/AntiSac_run5.xlsx
@@ -1025,8 +1025,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>2.075</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>6.475</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>9.3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>12.125</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <v>14.45</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>17.275</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>21.925</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>24.5</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1291,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>27.325</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>30.15</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>31.975</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>33.8</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="2">
-        <v>35.625</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1391,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="2">
-        <v>37.45</v>
+        <v>37.85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>39.525</v>
+        <v>39.95</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <v>42.1</v>
+        <v>42.55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="2">
-        <v>43.925</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="2">
-        <v>46.75</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="2">
-        <v>49.075</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>51.65</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>54.475</v>
+        <v>55.05</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="2">
-        <v>56.55</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1572,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="2">
-        <v>59.375</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/config/AntiSac_config/AntiSac_run5.xlsx
+++ b/config/AntiSac_config/AntiSac_run5.xlsx
@@ -1025,8 +1025,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>2.1</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>6.55</v>
+        <v>6.475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>9.4</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>12.25</v>
+        <v>12.125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <v>14.6</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>17.45</v>
+        <v>17.275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>22.15</v>
+        <v>21.925</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>24.75</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1291,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>27.6</v>
+        <v>27.325</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>30.45</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>32.3</v>
+        <v>31.975</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>34.15</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="2">
-        <v>36</v>
+        <v>35.625</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1391,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="2">
-        <v>37.85</v>
+        <v>37.45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>39.95</v>
+        <v>39.525</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <v>42.55</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="2">
-        <v>44.4</v>
+        <v>43.925</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="2">
-        <v>47.25</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="2">
-        <v>49.6</v>
+        <v>49.075</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="2">
-        <v>52.2</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>55.05</v>
+        <v>54.475</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1552,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="2">
-        <v>57.15</v>
+        <v>56.55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1572,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="2">
-        <v>60</v>
+        <v>59.375</v>
       </c>
     </row>
   </sheetData>
